--- a/ledger/ledger/bin/Debug/path_to_file.xlsx
+++ b/ledger/ledger/bin/Debug/path_to_file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>이름</t>
   </si>
@@ -38,22 +38,40 @@
     <t>기타</t>
   </si>
   <si>
-    <t>wang</t>
-  </si>
-  <si>
-    <t>200,000</t>
-  </si>
-  <si>
-    <t>12,000</t>
-  </si>
-  <si>
-    <t>10,000</t>
-  </si>
-  <si>
-    <t>2,000</t>
+    <t>요지학</t>
+  </si>
+  <si>
+    <t>5,000,000</t>
+  </si>
+  <si>
+    <t>550,000</t>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>250,000</t>
+  </si>
+  <si>
+    <t>왕우박</t>
+  </si>
+  <si>
+    <t>2,000,000</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>원복륭</t>
+  </si>
+  <si>
+    <t>왕성륭</t>
+  </si>
+  <si>
+    <t>1,000,000</t>
   </si>
 </sst>
 </file>
@@ -99,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -148,13 +166,91 @@
         <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ledger/ledger/bin/Debug/path_to_file.xlsx
+++ b/ledger/ledger/bin/Debug/path_to_file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>이름</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>1,000,000</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -253,6 +256,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
